--- a/docs/ProductBacklog.xlsx
+++ b/docs/ProductBacklog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -103,6 +103,45 @@
   <si>
     <t>- repository with name hydra should be created on GITHUB
 - repository should be empty with only a readme file</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>- create docs, src and test folders
+- create basic sails project
+- setup database</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>As a hydra admin, I would like to create new categories and list them so that a user can categorize a component into one of them</t>
+  </si>
+  <si>
+    <t>- insert new category into database
+- category must be unique. No duplicates allowed
+- list all categories available</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>List all components</t>
+  </si>
+  <si>
+    <t>- list all components that are active</t>
+  </si>
+  <si>
+    <t>- component name must be unique
+- mandatory fields are name, description, owner, category
+- created date is mandatory and must be auto inserted</t>
   </si>
 </sst>
 </file>
@@ -151,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +207,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -449,19 +492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E24"/>
+  <dimension ref="C3:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="55.7109375" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -471,8 +515,14 @@
       <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -482,17 +532,31 @@
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7">
+        <v>42416</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7">
+        <v>42416</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -501,16 +565,18 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" ht="60" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -519,7 +585,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -528,7 +594,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -537,7 +603,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -546,7 +612,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -555,7 +621,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
@@ -564,7 +630,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
@@ -573,11 +639,33 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
+    <row r="15" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="7">
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
